--- a/fr.sparna/rdf/skos/skos-play/src/main/webapp/excel_test/excel2skos-exemple-4.xlsx
+++ b/fr.sparna/rdf/skos/skos-play/src/main/webapp/excel_test/excel2skos-exemple-4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>URI</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>schema:location</t>
+  </si>
+  <si>
+    <t>schema:startDate^^xsd:date</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,6 +164,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -469,9 +473,10 @@
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -479,7 +484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -490,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -501,16 +506,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -526,8 +531,11 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -543,8 +551,11 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="7">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -560,20 +571,23 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="7">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="C14" s="1"/>
     </row>
@@ -637,7 +651,7 @@
     <row r="5" spans="1:4">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>

--- a/fr.sparna/rdf/skos/skos-play/src/main/webapp/excel_test/excel2skos-exemple-4.xlsx
+++ b/fr.sparna/rdf/skos/skos-play/src/main/webapp/excel_test/excel2skos-exemple-4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\00-Clients\Sparna\20-Repositories\skos-play\fr.sparna\rdf\skos\skos-play\src\main\webapp\excel_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0F4F1-C6A6-452B-ACFD-FD8516FF6376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27135" windowHeight="11955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="2" r:id="rId1"/>
@@ -29,9 +35,6 @@
     <t>semweb-events</t>
   </si>
   <si>
-    <t>http://data.sparna.fr/vocabularies/semweb-events#</t>
-  </si>
-  <si>
     <t>This exemple illustrates how the converter can also generates other RDF data than SKOS</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t>places</t>
   </si>
   <si>
-    <t>http://data.sparna.fr/vocabularies/places#</t>
-  </si>
-  <si>
     <t>schema:Event</t>
   </si>
   <si>
@@ -90,13 +90,19 @@
   </si>
   <si>
     <t>schema:startDate^^xsd:date</t>
+  </si>
+  <si>
+    <t>http://data.sparna.fr/vocabularies/semweb-events/</t>
+  </si>
+  <si>
+    <t>http://data.sparna.fr/vocabularies/places/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +178,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -218,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,9 +264,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,6 +316,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,14 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
@@ -476,15 +526,15 @@
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -492,110 +542,110 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="7">
         <v>42695</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <v>42519</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
@@ -618,85 +668,85 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
